--- a/biology/Médecine/Science_et_Charité/Science_et_Charité.xlsx
+++ b/biology/Médecine/Science_et_Charité/Science_et_Charité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Science_et_Charit%C3%A9</t>
+          <t>Science_et_Charité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Science et Charité est un tableau réalisé par le peintre espagnol Pablo Picasso en 1897 à Barcelone. Cette huile sur toile est une scène de genre qui représente un médecin et une religieuse au chevet d'un malade alité. Depuis un don de l'artiste en 1970, l'œuvre fait partie des collections du musée Picasso, à Barcelone.
 </t>
